--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1415090.101631117</v>
+        <v>-1417646.417458367</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>12.27673055432601</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>32.23168924578632</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -786,7 +786,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>80.91815821265264</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>161.0561355970397</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.1676858594815</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>229.7965692041371</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>170.1642714312779</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1026,7 +1026,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189229</v>
       </c>
       <c r="U6" t="n">
         <v>225.7871683969286</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>107.5003107098658</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>222.5627937563451</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>342.8171881768175</v>
+        <v>129.6633107558671</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>110.5539839043384</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>16.44765383817569</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>106.2078024559169</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>90.48716302792783</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986265</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182139</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>27.25908948142161</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>216.4795114578108</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>25.52471385612597</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>160.1763464053468</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703276</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>101.6969570046975</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>225.1982974261594</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085812005</v>
+        <v>127.5379405516739</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,13 +3004,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>75.00788511618036</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261728</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002298</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,7 +3901,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796252</v>
+        <v>2038.144201386631</v>
       </c>
       <c r="C2" t="n">
-        <v>909.3697179459625</v>
+        <v>1669.18168444622</v>
       </c>
       <c r="D2" t="n">
-        <v>909.3697179459625</v>
+        <v>1310.915985839469</v>
       </c>
       <c r="E2" t="n">
-        <v>523.5814653477182</v>
+        <v>925.1277332412251</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>514.1418284516176</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>99.06937829661405</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4352,13 +4352,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
@@ -4367,13 +4367,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>2424.744041450753</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.4482993600903</v>
+        <v>758.2040405686498</v>
       </c>
       <c r="C4" t="n">
-        <v>66.5121164321834</v>
+        <v>589.2678576407429</v>
       </c>
       <c r="D4" t="n">
-        <v>66.5121164321834</v>
+        <v>589.2678576407429</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>441.3547640583498</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>294.4648165604394</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>294.4648165604394</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>148.2476297782972</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
@@ -4516,22 +4516,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>758.2040405686498</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>758.2040405686498</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>758.2040405686498</v>
       </c>
       <c r="W4" t="n">
-        <v>637.8893433338601</v>
+        <v>758.2040405686498</v>
       </c>
       <c r="X4" t="n">
-        <v>637.8893433338601</v>
+        <v>758.2040405686498</v>
       </c>
       <c r="Y4" t="n">
-        <v>417.09676419033</v>
+        <v>758.2040405686498</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1822.632236038043</v>
+        <v>1582.86133602681</v>
       </c>
       <c r="C5" t="n">
-        <v>1453.669719097631</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D5" t="n">
-        <v>1095.404020490881</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>709.6157678926365</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>298.629863103029</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>3043.432050680429</v>
       </c>
       <c r="V5" t="n">
-        <v>3325.605821609171</v>
+        <v>2712.369163336858</v>
       </c>
       <c r="W5" t="n">
-        <v>2972.837166339056</v>
+        <v>2359.600508066744</v>
       </c>
       <c r="X5" t="n">
-        <v>2599.371408077976</v>
+        <v>2359.600508066744</v>
       </c>
       <c r="Y5" t="n">
-        <v>2209.232076102165</v>
+        <v>1969.461176090932</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>472.1048757766374</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C7" t="n">
-        <v>472.1048757766374</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D7" t="n">
-        <v>321.9882363643017</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4756,19 +4756,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>696.0761030339979</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>441.3916148281111</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>441.3916148281111</v>
       </c>
       <c r="X7" t="n">
-        <v>692.8974549201675</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="Y7" t="n">
-        <v>472.1048757766374</v>
+        <v>213.4020639300938</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1624.63871203243</v>
+        <v>1363.124011696101</v>
       </c>
       <c r="C8" t="n">
-        <v>1278.358723975039</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269322</v>
+        <v>2513.328941997114</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008242</v>
+        <v>2139.863183736034</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.63871203243</v>
+        <v>1749.723851760223</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>212.7293032143256</v>
+        <v>474.5166334391243</v>
       </c>
       <c r="C10" t="n">
-        <v>212.7293032143256</v>
+        <v>362.8459426266613</v>
       </c>
       <c r="D10" t="n">
         <v>212.7293032143256</v>
@@ -4954,16 +4954,16 @@
         <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -4987,25 +4987,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>904.2732140624519</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T10" t="n">
-        <v>904.2732140624519</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U10" t="n">
-        <v>615.1703471880954</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="V10" t="n">
-        <v>615.1703471880954</v>
+        <v>474.5166334391243</v>
       </c>
       <c r="W10" t="n">
-        <v>615.1703471880954</v>
+        <v>474.5166334391243</v>
       </c>
       <c r="X10" t="n">
-        <v>615.1703471880954</v>
+        <v>474.5166334391243</v>
       </c>
       <c r="Y10" t="n">
-        <v>394.3777680445653</v>
+        <v>474.5166334391243</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,64 +5027,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191926</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349515</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636217</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>261.012762333092</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797191</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373476</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.931364336516</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X13" t="n">
-        <v>1202.941813438498</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.1492342949683</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,61 +5264,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190824</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.3544215660693</v>
+        <v>803.8641191832244</v>
       </c>
       <c r="C16" t="n">
-        <v>612.4182386381636</v>
+        <v>634.9279362553175</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2419.428649760644</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2236.573815415548</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2016.972350438489</v>
+        <v>1978.396372297859</v>
       </c>
       <c r="U16" t="n">
-        <v>1727.897123782687</v>
+        <v>1978.396372297859</v>
       </c>
       <c r="V16" t="n">
-        <v>1473.2126355768</v>
+        <v>1723.711884091972</v>
       </c>
       <c r="W16" t="n">
-        <v>1183.795465539839</v>
+        <v>1434.294714055012</v>
       </c>
       <c r="X16" t="n">
-        <v>1183.795465539839</v>
+        <v>1206.305163156994</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.002886396309</v>
+        <v>985.5125840134641</v>
       </c>
     </row>
     <row r="17">
@@ -5501,22 +5501,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,37 +5525,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718124</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.528408326419</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>119.599202296584</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>691.195150674524</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.793114229131</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400721</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121652</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121652</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121652</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121652</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.294644713842</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703119</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273905</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273905</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C25" t="n">
-        <v>411.1294017454277</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1527.958529899112</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1238.541359862152</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1010.551808964134</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>789.7592298206043</v>
       </c>
     </row>
     <row r="26">
@@ -6215,37 +6215,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6482,19 +6482,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273902</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273902</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>847.644273983533</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711973</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1901.695539989114</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1647.011051783227</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1647.011051783227</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6683,19 +6683,19 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6713,22 +6713,22 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745237</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150024</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
         <v>656.9646031150024</v>
@@ -7084,22 +7084,22 @@
         <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,7 +7169,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
         <v>378.192580311172</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7321,7 +7321,7 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,10 +7354,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,31 +7430,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
         <v>656.9646031150023</v>
@@ -7555,7 +7555,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7564,16 +7564,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7840,10 +7840,10 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
         <v>1280.338681582389</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>352.9961612166815</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>262.3760751415342</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22708,22 +22708,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,28 +22750,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>132.6307665444197</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>58.49281367912945</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>6.355312477109464</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.62417772602035</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.294712846221</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>196.0358353086632</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,16 +23656,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>39.11615722870003</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>0.9259388694774202</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.9994244361429</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>57.22910392194146</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>55.21102825632966</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194129</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>65.5498640939303</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>26.93934589766863</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405078</v>
+        <v>39.70888054695394</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,13 +24892,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>211.1765892730638</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1049363.273544795</v>
+        <v>1049363.273544796</v>
       </c>
     </row>
     <row r="3">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135401.7127154573</v>
+        <v>135401.7127154574</v>
       </c>
       <c r="C2" t="n">
         <v>164208.3539728567</v>
@@ -26329,22 +26329,22 @@
         <v>161429.3199380013</v>
       </c>
       <c r="H2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="I2" t="n">
         <v>161429.3199380012</v>
       </c>
       <c r="J2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380011</v>
       </c>
       <c r="K2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380011</v>
       </c>
       <c r="L2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="M2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="N2" t="n">
         <v>164208.3539728568</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363175</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551201</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11387.33216691493</v>
+        <v>11387.33216691508</v>
       </c>
       <c r="C4" t="n">
+        <v>93596.74410405256</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.74410405254</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26430,31 +26430,31 @@
         <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189198</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
+        <v>16046.58397189199</v>
+      </c>
+      <c r="J4" t="n">
+        <v>16046.58397189202</v>
+      </c>
+      <c r="K4" t="n">
         <v>16046.58397189197</v>
       </c>
-      <c r="J4" t="n">
-        <v>16046.58397189197</v>
-      </c>
-      <c r="K4" t="n">
-        <v>16046.58397189203</v>
-      </c>
       <c r="L4" t="n">
-        <v>24037.4432349855</v>
+        <v>24037.44323498544</v>
       </c>
       <c r="M4" t="n">
-        <v>24037.44323498543</v>
+        <v>24037.44323498544</v>
       </c>
       <c r="N4" t="n">
         <v>24037.44323498544</v>
       </c>
       <c r="O4" t="n">
-        <v>24037.44323498544</v>
+        <v>24037.44323498551</v>
       </c>
       <c r="P4" t="n">
         <v>24037.44323498545</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1312664.305740443</v>
+        <v>-1313024.388756161</v>
       </c>
       <c r="C6" t="n">
-        <v>-37322.33069258912</v>
+        <v>-37322.33069258915</v>
       </c>
       <c r="D6" t="n">
-        <v>-37322.3306925892</v>
+        <v>-37322.33069258917</v>
       </c>
       <c r="E6" t="n">
-        <v>-281152.2556651536</v>
+        <v>-281186.9935905887</v>
       </c>
       <c r="F6" t="n">
-        <v>44260.20614220212</v>
+        <v>44225.46821676646</v>
       </c>
       <c r="G6" t="n">
-        <v>44260.20614220218</v>
+        <v>44225.46821676646</v>
       </c>
       <c r="H6" t="n">
-        <v>44260.20614220208</v>
+        <v>44225.46821676646</v>
       </c>
       <c r="I6" t="n">
-        <v>44260.20614220215</v>
+        <v>44225.4682167664</v>
       </c>
       <c r="J6" t="n">
-        <v>-173270.9962550754</v>
+        <v>-173305.7341805111</v>
       </c>
       <c r="K6" t="n">
-        <v>44260.20614220205</v>
+        <v>44225.46821676634</v>
       </c>
       <c r="L6" t="n">
-        <v>17579.07689032414</v>
+        <v>17579.07689032411</v>
       </c>
       <c r="M6" t="n">
-        <v>-48048.23305155602</v>
+        <v>-48048.23305155592</v>
       </c>
       <c r="N6" t="n">
-        <v>37006.79488395594</v>
+        <v>37006.79488395597</v>
       </c>
       <c r="O6" t="n">
-        <v>37006.79488395591</v>
+        <v>37006.79488395581</v>
       </c>
       <c r="P6" t="n">
-        <v>37006.79488395585</v>
+        <v>37006.79488395582</v>
       </c>
     </row>
   </sheetData>
@@ -26713,16 +26713,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203975</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>15.43426219718545</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>57.13825878702215</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>181.1251564493163</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>80.8309005276241</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>38.93365193670338</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27828,10 +27828,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>63.64904444926779</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>22.45570359419008</v>
+        <v>235.6095810151405</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>56.69283719428945</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28059,16 +28059,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>173.3213714932662</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>2.827960088325199e-12</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28485,7 +28485,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>491.1355220041049</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>359.7096985496626</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>506.5665344352321</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236488</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,31 +33023,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,31 +33260,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33436,7 +33436,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669223</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33670,7 +33670,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,10 +33749,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>349.0014880820866</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>228.3679864663293</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>364.4325005132138</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,31 +36671,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,10 +37397,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
